--- a/data_year/zb/公共管理、社会保障及其他/人民检察院处理申诉案件情况/人民检察院申诉案件立案复查件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院处理申诉案件情况/人民检察院申诉案件立案复查件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,684 +498,383 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>543</v>
+        <v>1735</v>
       </c>
       <c r="C2" t="n">
-        <v>1361</v>
+        <v>2573</v>
       </c>
       <c r="D2" t="n">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>3236</v>
+        <v>5598</v>
       </c>
       <c r="G2" t="n">
-        <v>2040</v>
+        <v>5103</v>
       </c>
       <c r="H2" t="n">
-        <v>1040</v>
+        <v>1128</v>
       </c>
       <c r="I2" t="n">
-        <v>904</v>
+        <v>1702</v>
       </c>
       <c r="J2" t="n">
-        <v>462</v>
+        <v>1902</v>
       </c>
       <c r="K2" t="n">
-        <v>514</v>
+        <v>1046</v>
       </c>
       <c r="L2" t="n">
-        <v>160</v>
+        <v>453</v>
       </c>
       <c r="M2" t="n">
-        <v>5276</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353</v>
+        <v>890</v>
       </c>
       <c r="C3" t="n">
-        <v>1840</v>
+        <v>1599</v>
       </c>
       <c r="D3" t="n">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="F3" t="n">
-        <v>3591</v>
+        <v>3458</v>
       </c>
       <c r="G3" t="n">
-        <v>1978</v>
+        <v>4937</v>
       </c>
       <c r="H3" t="n">
-        <v>1155</v>
+        <v>887</v>
       </c>
       <c r="I3" t="n">
-        <v>828</v>
+        <v>1631</v>
       </c>
       <c r="J3" t="n">
-        <v>450</v>
+        <v>1913</v>
       </c>
       <c r="K3" t="n">
-        <v>480</v>
+        <v>923</v>
       </c>
       <c r="L3" t="n">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="M3" t="n">
-        <v>5569</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320</v>
+        <v>1336</v>
       </c>
       <c r="C4" t="n">
-        <v>1241</v>
+        <v>1836</v>
       </c>
       <c r="D4" t="n">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="F4" t="n">
-        <v>2482</v>
+        <v>4553</v>
       </c>
       <c r="G4" t="n">
-        <v>1735</v>
+        <v>7027</v>
       </c>
       <c r="H4" t="n">
-        <v>740</v>
+        <v>1299</v>
       </c>
       <c r="I4" t="n">
-        <v>685</v>
+        <v>2398</v>
       </c>
       <c r="J4" t="n">
-        <v>416</v>
+        <v>2792</v>
       </c>
       <c r="K4" t="n">
-        <v>475</v>
+        <v>1150</v>
       </c>
       <c r="L4" t="n">
-        <v>159</v>
+        <v>687</v>
       </c>
       <c r="M4" t="n">
-        <v>4217</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268</v>
+        <v>992</v>
       </c>
       <c r="C5" t="n">
-        <v>1031</v>
+        <v>3258</v>
       </c>
       <c r="D5" t="n">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="E5" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F5" t="n">
-        <v>2007</v>
+        <v>6645</v>
       </c>
       <c r="G5" t="n">
-        <v>1531</v>
+        <v>9160</v>
       </c>
       <c r="H5" t="n">
-        <v>566</v>
+        <v>2301</v>
       </c>
       <c r="I5" t="n">
-        <v>573</v>
+        <v>3320</v>
       </c>
       <c r="J5" t="n">
-        <v>401</v>
+        <v>3361</v>
       </c>
       <c r="K5" t="n">
-        <v>406</v>
+        <v>1616</v>
       </c>
       <c r="L5" t="n">
-        <v>151</v>
+        <v>863</v>
       </c>
       <c r="M5" t="n">
-        <v>3538</v>
+        <v>15805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>250</v>
+        <v>474</v>
       </c>
       <c r="C6" t="n">
-        <v>855</v>
+        <v>2531</v>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>1733</v>
+        <v>4085</v>
       </c>
       <c r="G6" t="n">
-        <v>1300</v>
+        <v>6188</v>
       </c>
       <c r="H6" t="n">
-        <v>497</v>
+        <v>1021</v>
       </c>
       <c r="I6" t="n">
-        <v>469</v>
+        <v>2134</v>
       </c>
       <c r="J6" t="n">
-        <v>389</v>
+        <v>1886</v>
       </c>
       <c r="K6" t="n">
-        <v>333</v>
+        <v>1528</v>
       </c>
       <c r="L6" t="n">
-        <v>109</v>
+        <v>640</v>
       </c>
       <c r="M6" t="n">
-        <v>3033</v>
+        <v>10273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="C7" t="n">
-        <v>803</v>
+        <v>1736</v>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>1589</v>
+        <v>2013</v>
       </c>
       <c r="G7" t="n">
-        <v>1292</v>
+        <v>3086</v>
       </c>
       <c r="H7" t="n">
-        <v>473</v>
+        <v>146</v>
       </c>
       <c r="I7" t="n">
-        <v>453</v>
+        <v>891</v>
       </c>
       <c r="J7" t="n">
-        <v>391</v>
+        <v>843</v>
       </c>
       <c r="K7" t="n">
-        <v>341</v>
+        <v>937</v>
       </c>
       <c r="L7" t="n">
-        <v>107</v>
+        <v>318</v>
       </c>
       <c r="M7" t="n">
-        <v>2881</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>371</v>
+        <v>125</v>
       </c>
       <c r="C8" t="n">
-        <v>1071</v>
+        <v>2105</v>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>1980</v>
+        <v>2332</v>
       </c>
       <c r="G8" t="n">
-        <v>1590</v>
+        <v>3412</v>
       </c>
       <c r="H8" t="n">
-        <v>455</v>
+        <v>83</v>
       </c>
       <c r="I8" t="n">
-        <v>581</v>
+        <v>908</v>
       </c>
       <c r="J8" t="n">
-        <v>480</v>
+        <v>901</v>
       </c>
       <c r="K8" t="n">
-        <v>401</v>
+        <v>1058</v>
       </c>
       <c r="L8" t="n">
-        <v>128</v>
+        <v>360</v>
       </c>
       <c r="M8" t="n">
-        <v>3570</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1735</v>
+        <v>129</v>
       </c>
       <c r="C9" t="n">
-        <v>2573</v>
-      </c>
-      <c r="D9" t="n">
-        <v>87</v>
-      </c>
+        <v>2384</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>5598</v>
+        <v>2617</v>
       </c>
       <c r="G9" t="n">
-        <v>5103</v>
+        <v>4007</v>
       </c>
       <c r="H9" t="n">
-        <v>1128</v>
+        <v>88</v>
       </c>
       <c r="I9" t="n">
-        <v>1702</v>
+        <v>1073</v>
       </c>
       <c r="J9" t="n">
-        <v>1902</v>
+        <v>973</v>
       </c>
       <c r="K9" t="n">
-        <v>1046</v>
+        <v>1247</v>
       </c>
       <c r="L9" t="n">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M9" t="n">
-        <v>10701</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>890</v>
+        <v>106</v>
       </c>
       <c r="C10" t="n">
-        <v>1599</v>
-      </c>
-      <c r="D10" t="n">
-        <v>44</v>
-      </c>
+        <v>2629</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>3458</v>
+        <v>2812</v>
       </c>
       <c r="G10" t="n">
-        <v>4937</v>
+        <v>4741</v>
       </c>
       <c r="H10" t="n">
-        <v>887</v>
+        <v>66</v>
       </c>
       <c r="I10" t="n">
-        <v>1631</v>
+        <v>1481</v>
       </c>
       <c r="J10" t="n">
-        <v>1913</v>
+        <v>1078</v>
       </c>
       <c r="K10" t="n">
-        <v>923</v>
+        <v>1403</v>
       </c>
       <c r="L10" t="n">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="M10" t="n">
-        <v>8395</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1336</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1836</v>
-      </c>
-      <c r="D11" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" t="n">
-        <v>42</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4553</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7027</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1299</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2398</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2792</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1150</v>
-      </c>
-      <c r="L11" t="n">
-        <v>687</v>
-      </c>
-      <c r="M11" t="n">
-        <v>11580</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>992</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3258</v>
-      </c>
-      <c r="D12" t="n">
-        <v>52</v>
-      </c>
-      <c r="E12" t="n">
-        <v>42</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6645</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9160</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2301</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3320</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3361</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1616</v>
-      </c>
-      <c r="L12" t="n">
-        <v>863</v>
-      </c>
-      <c r="M12" t="n">
-        <v>15805</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>474</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2531</v>
-      </c>
-      <c r="D13" t="n">
-        <v>37</v>
-      </c>
-      <c r="E13" t="n">
-        <v>22</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4085</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6188</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1021</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2134</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1886</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1528</v>
-      </c>
-      <c r="L13" t="n">
-        <v>640</v>
-      </c>
-      <c r="M13" t="n">
-        <v>10273</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>101</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1736</v>
-      </c>
-      <c r="D14" t="n">
-        <v>15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>15</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2013</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3086</v>
-      </c>
-      <c r="H14" t="n">
-        <v>146</v>
-      </c>
-      <c r="I14" t="n">
-        <v>891</v>
-      </c>
-      <c r="J14" t="n">
-        <v>843</v>
-      </c>
-      <c r="K14" t="n">
-        <v>937</v>
-      </c>
-      <c r="L14" t="n">
-        <v>318</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5099</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>125</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2105</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2332</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3412</v>
-      </c>
-      <c r="H15" t="n">
-        <v>83</v>
-      </c>
-      <c r="I15" t="n">
-        <v>908</v>
-      </c>
-      <c r="J15" t="n">
-        <v>901</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1058</v>
-      </c>
-      <c r="L15" t="n">
-        <v>360</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5744</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>129</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2384</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2617</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4007</v>
-      </c>
-      <c r="H16" t="n">
-        <v>88</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1073</v>
-      </c>
-      <c r="J16" t="n">
-        <v>973</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1247</v>
-      </c>
-      <c r="L16" t="n">
-        <v>460</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6624</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>106</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2629</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>11</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2812</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4741</v>
-      </c>
-      <c r="H17" t="n">
-        <v>66</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1481</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1078</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1403</v>
-      </c>
-      <c r="L17" t="n">
-        <v>442</v>
-      </c>
-      <c r="M17" t="n">
         <v>7553</v>
       </c>
     </row>
